--- a/Individual Project 1.xlsx
+++ b/Individual Project 1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Emmanuelz\Week-1-Individual-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B80DC5-6BA8-4993-AA15-49896F2518FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E6B66-40EE-4F33-8227-598EB934FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
+    <sheet name="bike_buyers" sheetId="11" r:id="rId1"/>
     <sheet name="Q1" sheetId="2" r:id="rId2"/>
     <sheet name="Q2" sheetId="10" r:id="rId3"/>
     <sheet name="Q3" sheetId="5" r:id="rId4"/>
@@ -24,18 +24,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bike_buyers!$A$1:$N$1</definedName>
     <definedName name="Slicer_Age_Bracket">#N/A</definedName>
-    <definedName name="Slicer_Age_Bracket1">#N/A</definedName>
-    <definedName name="Slicer_Gender">#N/A</definedName>
-    <definedName name="Slicer_Gender1">#N/A</definedName>
-    <definedName name="Slicer_Gender2">#N/A</definedName>
-    <definedName name="Slicer_Occupation">#N/A</definedName>
     <definedName name="Slicer_Purchased_Bike1">#N/A</definedName>
     <definedName name="Slicer_Purchased_Bike11">#N/A</definedName>
-    <definedName name="Slicer_Purchased_Bike12">#N/A</definedName>
     <definedName name="Slicer_Purchased_Bike13">#N/A</definedName>
-    <definedName name="Slicer_Purchased_Bike14">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -46,13 +39,6 @@
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
-        <x14:slicerCache r:id="rId13"/>
-        <x14:slicerCache r:id="rId14"/>
-        <x14:slicerCache r:id="rId15"/>
-        <x14:slicerCache r:id="rId16"/>
-        <x14:slicerCache r:id="rId17"/>
-        <x14:slicerCache r:id="rId18"/>
-        <x14:slicerCache r:id="rId19"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -61,7 +47,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -69,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8057" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8075" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -194,12 +185,6 @@
     <t>Average of Income</t>
   </si>
   <si>
-    <t xml:space="preserve">The average income for females is </t>
-  </si>
-  <si>
-    <t>The Average salary of males who did not buy a bike is</t>
-  </si>
-  <si>
     <t>Count of Purchased Bike</t>
   </si>
   <si>
@@ -210,6 +195,30 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Ikogho Emmanuel Okeoghene</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>emmanuel.ikogho@azubiafrica.org</t>
+  </si>
+  <si>
+    <t>1. What is the average income for females?</t>
+  </si>
+  <si>
+    <t>3. Whch age bracket should the company focus their marketing strategies on?</t>
+  </si>
+  <si>
+    <t>Sum of Income</t>
+  </si>
+  <si>
+    <t>The company should focus their marketing strategies on the Adolescent since they bring in the least income.</t>
   </si>
   <si>
     <r>
@@ -226,13 +235,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> purchased bikes from the company.</t>
+      <t xml:space="preserve"> purchased from the company representing 59% of the Adolescent population.</t>
     </r>
   </si>
   <si>
@@ -250,6 +260,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
@@ -260,78 +271,28 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Graduate degree holders purchase more bikes than high school leavers.</t>
-    </r>
+    <t>2. What is the average salary of males who did not buy a bike?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The company should focus their marketing strategies on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Middle Age Bracket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> since they are more likely to make a purchase.</t>
-    </r>
+    <t>4. How many adolescent male purchased bikes from the company?</t>
   </si>
   <si>
-    <t>Count of Purchased Bike2</t>
+    <t>5. How many Professional Middle Age male workers purchased bikes from the company?</t>
   </si>
   <si>
-    <t>Full Name</t>
+    <t>The assumption that Graduate degree holders purchase more bikes than high school leavers is True.</t>
   </si>
   <si>
-    <t>Ikogho Emmanuel Okeoghene</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>emmanuel.ikogho@azubiafrica.org</t>
+    <t>6. Is the assumption that Graduate degree holders purchase more bikes compared to high school leavers true?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -851,34 +812,35 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -926,7 +888,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -936,6 +898,9 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -965,162 +930,6634 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q1!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="98000"/>
+                  <a:hueMod val="94000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="128000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:lumMod val="88000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="46000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="25400" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q1'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="98000"/>
+                    <a:hueMod val="94000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="128000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:lumMod val="88000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="46000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="plastic">
+              <a:bevelT w="25400" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q1'!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q1'!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54580.777096114522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F17-48BC-8104-760863D003C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="550829472"/>
+        <c:axId val="550828224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="550829472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550828224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="550828224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550829472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q2!PivotTable5</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="98000"/>
+                  <a:hueMod val="94000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="128000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:lumMod val="88000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="46000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="25400" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="98000"/>
+                  <a:hueMod val="94000"/>
+                  <a:satMod val="130000"/>
+                  <a:lumMod val="128000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:lumMod val="88000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="46000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="25400" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$5:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="98000"/>
+                    <a:hueMod val="94000"/>
+                    <a:satMod val="130000"/>
+                    <a:lumMod val="128000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:lumMod val="88000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="46000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="plastic">
+              <a:bevelT w="25400" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-35B5-4C14-B989-2FE36BE47E0B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-35B5-4C14-B989-2FE36BE47E0B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$7:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56208.178438661707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35B5-4C14-B989-2FE36BE47E0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="804031808"/>
+        <c:axId val="804030144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="804031808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804030144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="804030144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804031808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q3!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44773600174978123"/>
+          <c:y val="3.138670166229221E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20790507436570432"/>
+          <c:y val="0.15543051910177894"/>
+          <c:w val="0.48451946631671039"/>
+          <c:h val="0.80753244386118406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A885-4003-AF4D-04B708A24F29}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A885-4003-AF4D-04B708A24F29}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A885-4003-AF4D-04B708A24F29}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Adolescent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Middle Age</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3660000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41420000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11280000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AA4-41EC-B5A1-64129E22B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q4!PivotTable5</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>TOTAL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:fld id="{7C46778D-BBBA-440D-97C8-3342EB4E1C88}" type="CATEGORYNAME">
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:t>[CATEGORY NAME]</a:t>
+                </a:fld>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>
+</a:t>
+                </a:r>
+                <a:fld id="{A129FDC2-DFF6-49A6-925E-8118C214462F}" type="PERCENTAGE">
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:pPr>
+                    <a:defRPr b="1"/>
+                  </a:pPr>
+                  <a:t>[PERCENTAGE]</a:t>
+                </a:fld>
+                <a:endParaRPr lang="en-US" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:dlblFieldTable/>
+              <c15:showDataLabelsRange val="0"/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31811120789383895"/>
+          <c:y val="0.24335010544623836"/>
+          <c:w val="0.3637774026312191"/>
+          <c:h val="0.665982750963377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q4'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-643D-4544-9D20-5AD6F268F100}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-643D-4544-9D20-5AD6F268F100}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C46778D-BBBA-440D-97C8-3342EB4E1C88}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{A129FDC2-DFF6-49A6-925E-8118C214462F}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-643D-4544-9D20-5AD6F268F100}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q4'!$A$4:$A$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adolescent</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Adolescent</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q4'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-643D-4544-9D20-5AD6F268F100}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q5!PivotTable5</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31351542146597944"/>
+          <c:y val="0.1394455565278461"/>
+          <c:w val="0.54248345320933367"/>
+          <c:h val="0.75391163866748012"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Q5'!$A$7:$A$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Adolescent</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Middle Age</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Old</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q5'!$B$7:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1DB-41D5-8077-97C54686A844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="556271600"/>
+        <c:axId val="556272016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556271600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556272016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556272016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556271600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Individual Project 1.xlsx]Q6!PivotTable5</c:name>
+    <c:fmtId val="16"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q6'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q6'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Bachelors</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Graduate Degree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High School</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Partial College</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Partial High School</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q6'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5D4-432F-AF98-9F730EE95FC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="271721392"/>
+        <c:axId val="271720144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="271721392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271720144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271720144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="271721392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4329</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268432</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261504</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Gender 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05017C33-B77F-4D1E-AB9E-9C84EBC2FF68}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender 2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2428874" y="0"/>
-              <a:ext cx="1815812" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>255443</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>58016</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Purchased Bike">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB86F773-DA5D-445F-A261-249BB2576175}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Purchased Bike"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4238625" y="0"/>
-              <a:ext cx="1820141" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC28D24-186C-1118-4FE9-60218C6871FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1128,18 +7565,59 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9849CC3-42BA-245F-B580-456C4908ED52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1819491</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1672287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247433</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1175,8 +7653,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4616377" y="0"/>
-              <a:ext cx="1813647" cy="2452687"/>
+              <a:off x="3802423" y="5680364"/>
+              <a:ext cx="1176555" cy="1117023"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1206,23 +7684,59 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425B64FE-9F51-AE97-AC11-87EB3C263C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5411</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>5409</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>524523</xdr:colOff>
+      <xdr:colOff>398317</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>164522</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1258,8 +7772,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2906206" y="0"/>
-              <a:ext cx="1817976" cy="2452687"/>
+              <a:off x="3010114" y="415636"/>
+              <a:ext cx="1691771" cy="2034886"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1291,94 +7805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510887</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208034</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>146773</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Gender">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69273F43-7D93-4AE4-A048-FA8E5FFE3BCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4710546" y="0"/>
-              <a:ext cx="1809318" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>130101</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>125339</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>199160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>164524</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1414,8 +7850,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6503192" y="0"/>
-              <a:ext cx="1813647" cy="2452687"/>
+              <a:off x="208034" y="5576456"/>
+              <a:ext cx="1194740" cy="1446068"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1445,321 +7881,40 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Purchased Bike 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88CE6AA-52BA-4FD3-8F8A-A6566CCDCBD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Purchased Bike 3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2909455" y="0"/>
-              <a:ext cx="1815811" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>249598</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>244835</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Gender 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F21B202-4FDC-42A0-8E28-E08C2D96FE4B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Gender 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4717689" y="0"/>
-              <a:ext cx="1813646" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>232282</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>130104</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98713</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Occupation">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0B871A-1034-43EE-B48E-D9B0D32B4858}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Occupation"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8337191" y="0"/>
-              <a:ext cx="1811481" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>244186</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>241589</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Age Bracket 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3DAB6D-4467-45FC-96C8-E48115CD773E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Age Bracket 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6530686" y="0"/>
-              <a:ext cx="1815812" cy="2452687"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BB8E82-2D75-17EA-B549-7F6B76F84667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1767,18 +7922,59 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5490DB-E2F5-BF62-312A-DB9242FDBE4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>316706</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1843,6 +8039,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1734CD66-FA9E-BBEF-69B3-1DF702F4638C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18004,7 +24236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BCEFA05-B23D-4E04-9BD3-59051DCDF5A0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0BCEFA05-B23D-4E04-9BD3-59051DCDF5A0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -18046,17 +24278,28 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18070,8 +24313,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86643EA6-49A2-44E5-916C-969E533CEDA2}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86643EA6-49A2-44E5-916C-969E533CEDA2}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" colHeaderCaption="Purchased Bike">
+  <location ref="A5:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18156,7 +24399,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item x="0"/>
         <item h="1" x="1"/>
@@ -18175,20 +24418,66 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="3">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18202,8 +24491,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07676602-2903-45D6-B97A-A121E1320927}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:C5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07676602-2903-45D6-B97A-A121E1320927}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18214,7 +24503,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18288,9 +24577,9 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -18313,21 +24602,32 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" showDataAs="percentOfTotal" baseField="12" baseItem="0" numFmtId="10"/>
-    <dataField name="Count of Purchased Bike2" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Sum of Income" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="12" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18341,14 +24641,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB1855AF-A1DD-4989-B468-77D08DD76090}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB1855AF-A1DD-4989-B468-77D08DD76090}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -18439,7 +24739,13 @@
     <field x="2"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -18456,6 +24762,47 @@
   <dataFields count="1">
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18469,14 +24816,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B0B6EAC-4E7D-4DF9-8056-E8521C79EF2A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B0B6EAC-4E7D-4DF9-8056-E8521C79EF2A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A6:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -18484,7 +24831,7 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item h="1" x="1"/>
         <item h="1" x="4"/>
@@ -18558,13 +24905,13 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item h="1" x="0"/>
         <item x="1"/>
@@ -18573,12 +24920,30 @@
     </pivotField>
   </pivotFields>
   <rowFields count="2">
+    <field x="12"/>
     <field x="2"/>
-    <field x="12"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -18590,9 +24955,24 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="2">
+    <pageField fld="6" hier="-1"/>
+    <pageField fld="13" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -18606,8 +24986,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC897EE3-7971-4BDC-AA91-08D36F4EC3DA}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC897EE3-7971-4BDC-AA91-08D36F4EC3DA}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -18758,7 +25138,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="7">
+  <chartFormats count="8">
     <chartFormat chart="10" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18837,6 +25217,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -18858,39 +25247,7 @@
   <data>
     <tabular pivotCacheId="85785859">
       <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache10.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Purchased_Bike14" xr10:uid="{506D0AE8-9777-4BDD-9ED8-26AE2D3A3F4D}" sourceName="Purchased Bike">
-  <pivotTables>
-    <pivotTable tabId="10" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="2">
         <i x="0" s="1"/>
-        <i x="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache11.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender2" xr10:uid="{8F4216A3-B3FD-4254-B588-77F0E8B7E8FD}" sourceName="Gender">
-  <pivotTables>
-    <pivotTable tabId="10" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="2">
-        <i x="0"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -18915,22 +25272,6 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{ACBD7B18-58ED-4F8B-A181-B2CEA863162C}" sourceName="Gender">
-  <pivotTables>
-    <pivotTable tabId="7" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age_Bracket" xr10:uid="{EA47A74D-4B01-46E6-9BC1-85158E420F63}" sourceName="Age Bracket">
   <pivotTables>
     <pivotTable tabId="7" name="PivotTable5"/>
@@ -18947,75 +25288,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Purchased_Bike12" xr10:uid="{C395FD39-EE02-4C55-A835-CBA450DF1EE0}" sourceName="Purchased Bike">
-  <pivotTables>
-    <pivotTable tabId="8" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender1" xr10:uid="{BF903817-FD4B-4EC7-ADEC-0BC1EF0F1014}" sourceName="Gender">
-  <pivotTables>
-    <pivotTable tabId="8" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="2">
-        <i x="0"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Occupation" xr10:uid="{6D6AFC1F-C141-414A-92B5-38EDF6E3D4D0}" sourceName="Occupation">
-  <pivotTables>
-    <pivotTable tabId="8" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="5">
-        <i x="1"/>
-        <i x="4"/>
-        <i x="3"/>
-        <i x="2" s="1"/>
-        <i x="0"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache8.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Age_Bracket1" xr10:uid="{5802DBAC-659A-48D3-9AE0-7B54FBE175BE}" sourceName="Age Bracket">
-  <pivotTables>
-    <pivotTable tabId="8" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="85785859">
-      <items count="3">
-        <i x="2"/>
-        <i x="0" s="1"/>
-        <i x="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Purchased_Bike13" xr10:uid="{63F8C525-0AFA-4F1F-B084-14316CE67551}" sourceName="Purchased Bike">
   <pivotTables>
     <pivotTable tabId="9" name="PivotTable5"/>
@@ -19033,60 +25306,42 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Purchased Bike" xr10:uid="{F6BF188F-3423-41A7-B539-E8ABEA633B92}" cache="Slicer_Purchased_Bike14" caption="Purchased Bike" rowHeight="241300"/>
-  <slicer name="Gender 2" xr10:uid="{982AF023-49A1-422B-A796-4478A0832B7A}" cache="Slicer_Gender2" caption="Gender" rowHeight="241300"/>
+  <slicer name="Purchased Bike 1" xr10:uid="{FC8A50AE-CFA1-4EBE-8C74-B4ECB7F67F04}" cache="Slicer_Purchased_Bike1" caption="Purchased Bike" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Purchased Bike 1" xr10:uid="{FC8A50AE-CFA1-4EBE-8C74-B4ECB7F67F04}" cache="Slicer_Purchased_Bike1" caption="Purchased Bike" rowHeight="241300"/>
+  <slicer name="Purchased Bike 2" xr10:uid="{5CD4FE63-FBF3-4994-959B-2C6E552EC871}" cache="Slicer_Purchased_Bike11" caption="Purchased Bike" rowHeight="241300"/>
+  <slicer name="Age Bracket" xr10:uid="{4CE8ABF1-4CF3-49C4-9074-734932808B86}" cache="Slicer_Age_Bracket" caption="Age Bracket" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Purchased Bike 2" xr10:uid="{5CD4FE63-FBF3-4994-959B-2C6E552EC871}" cache="Slicer_Purchased_Bike11" caption="Purchased Bike" rowHeight="241300"/>
-  <slicer name="Gender" xr10:uid="{DDED8E6D-BF8B-4550-955F-2CF2DFE72759}" cache="Slicer_Gender" caption="Gender" rowHeight="241300"/>
-  <slicer name="Age Bracket" xr10:uid="{4CE8ABF1-4CF3-49C4-9074-734932808B86}" cache="Slicer_Age_Bracket" caption="Age Bracket" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Purchased Bike 3" xr10:uid="{EF8C3B6F-7945-4CAC-B795-0C4371FD8BBA}" cache="Slicer_Purchased_Bike12" caption="Purchased Bike" rowHeight="241300"/>
-  <slicer name="Gender 1" xr10:uid="{4B3C7479-A96B-416C-AF4A-56547369E729}" cache="Slicer_Gender1" caption="Gender" rowHeight="241300"/>
-  <slicer name="Occupation" xr10:uid="{DE608B48-1769-402F-8CA0-F61322916A06}" cache="Slicer_Occupation" caption="Occupation" rowHeight="241300"/>
-  <slicer name="Age Bracket 1" xr10:uid="{E5B700EB-FFA4-4DEA-9C78-208B1E08E143}" cache="Slicer_Age_Bracket1" caption="Age Bracket" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer5.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Purchased Bike 4" xr10:uid="{4E56199F-22B0-48BF-80ED-15E4C9324AC9}" cache="Slicer_Purchased_Bike13" caption="Purchased Bike" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46E41918-28BF-477C-9EC9-D4651ADDB97F}" name="Table1" displayName="Table1" ref="A1:N1001" totalsRowShown="0">
-  <autoFilter ref="A1:N1001" xr:uid="{17E734FF-A2D2-46F0-A069-A3002C09CED2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA29B00B-CAF2-46B2-8CBD-025D7E6E1BB9}" name="Table1" displayName="Table1" ref="A1:N1001" totalsRowShown="0">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4D8D4177-700B-4281-BA97-74E62970C6E3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{E1FCB036-8129-4399-BE06-5D38CF913FBF}" name="Married Status"/>
-    <tableColumn id="3" xr3:uid="{84699E8D-D3B5-435D-9E07-CFA86303EAF1}" name="Gender"/>
-    <tableColumn id="4" xr3:uid="{AF158A81-EC8F-4F96-B91A-CB96F0963A92}" name="Income" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5968D6F7-C816-43B8-94F7-079BC1EB25EC}" name="Children"/>
-    <tableColumn id="6" xr3:uid="{975EE97E-684B-4DD6-AC51-AFC978DB406F}" name="Education"/>
-    <tableColumn id="7" xr3:uid="{64E5AB6D-B808-43DD-892C-49B059A9AFA2}" name="Occupation"/>
-    <tableColumn id="8" xr3:uid="{810505D2-603D-47F3-8CE8-716AA5A79F4A}" name="Home Owner"/>
-    <tableColumn id="9" xr3:uid="{07B3D327-1182-432D-BEAE-4154E7C053AD}" name="Cars"/>
-    <tableColumn id="10" xr3:uid="{8512E2B1-67C0-4261-8539-24EAD7ED8EC7}" name="Commute Distance"/>
-    <tableColumn id="11" xr3:uid="{40688ABD-4699-4B8F-8690-A5497B33C813}" name="Region"/>
-    <tableColumn id="12" xr3:uid="{42E2D896-86C9-45EA-BBB2-F8683CA902AD}" name="Age"/>
-    <tableColumn id="13" xr3:uid="{37E08643-E4D5-4C66-9575-7D20178DFC2E}" name="Age Bracket">
+    <tableColumn id="1" xr3:uid="{EC26059E-483A-4688-85AD-49BF74E12A2F}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{D7F18B10-6999-4C4E-A7B8-52D1F6E18C4A}" name="Married Status"/>
+    <tableColumn id="3" xr3:uid="{0331B9C6-CB33-4435-A8B1-107045D3227E}" name="Gender"/>
+    <tableColumn id="4" xr3:uid="{DD665475-C6B5-45C9-A1EC-F9CED995B691}" name="Income" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1D95B4AB-3C73-40D2-BB09-5CA6553F7716}" name="Children"/>
+    <tableColumn id="6" xr3:uid="{FF132507-F8C4-453A-892D-DCC3E911AA9D}" name="Education"/>
+    <tableColumn id="7" xr3:uid="{76BB02D0-A5D4-42EA-B668-CFF86859BE45}" name="Occupation"/>
+    <tableColumn id="8" xr3:uid="{E8C00A2C-9957-424F-B103-D8D1CB4EB786}" name="Home Owner"/>
+    <tableColumn id="9" xr3:uid="{ED254BF0-EB38-4C09-96B3-169BC0E05CF5}" name="Cars"/>
+    <tableColumn id="10" xr3:uid="{E4503C12-98F0-47B4-97F8-31405CD63CF0}" name="Commute Distance"/>
+    <tableColumn id="11" xr3:uid="{A7E64778-C743-49CE-A943-BFEB83C994DC}" name="Region"/>
+    <tableColumn id="12" xr3:uid="{4C0FD486-0761-49C0-95AC-70C72DC40733}" name="Age"/>
+    <tableColumn id="13" xr3:uid="{3062DDD5-B07F-4076-B16B-507187C31E8A}" name="Age Bracket">
       <calculatedColumnFormula>IF(L2&gt;54, "Old",IF(L2&gt;=31, "Middle Age",IF(L2&lt;31, "Adolescent", "Invalid")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{70A6B4E0-2FB7-4332-A570-09BA9B4876F4}" name="Purchased Bike"/>
+    <tableColumn id="14" xr3:uid="{C90DC309-89B2-44D4-82B1-E64D5E58E7EE}" name="Purchased Bike"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19367,27 +25622,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5BEE0C-35B2-4E5D-9C71-B216DE2D1411}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="6.875" customWidth="1"/>
-    <col min="10" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="6.625" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -19435,7 +25686,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>12496</v>
       </c>
       <c r="B2" t="s">
@@ -19472,7 +25723,7 @@
         <v>42</v>
       </c>
       <c r="M2" t="str">
-        <f>IF(L2&gt;54, "Old",IF(L2&gt;=31, "Middle Age",IF(L2&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" ref="M2:M65" si="0">IF(L2&gt;54, "Old",IF(L2&gt;=31, "Middle Age",IF(L2&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N2" t="s">
@@ -19517,7 +25768,7 @@
         <v>43</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">IF(L3&gt;54, "Old",IF(L3&gt;=31, "Middle Age",IF(L3&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="0"/>
         <v>Middle Age</v>
       </c>
       <c r="N3" t="s">
@@ -22352,7 +28603,7 @@
         <v>37</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M66:M129" si="1">IF(L66&gt;54, "Old",IF(L66&gt;=31, "Middle Age",IF(L66&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N66" t="s">
@@ -22397,7 +28648,7 @@
         <v>68</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="1">IF(L67&gt;54, "Old",IF(L67&gt;=31, "Middle Age",IF(L67&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="1"/>
         <v>Old</v>
       </c>
       <c r="N67" t="s">
@@ -25232,7 +31483,7 @@
         <v>52</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M130:M193" si="2">IF(L130&gt;54, "Old",IF(L130&gt;=31, "Middle Age",IF(L130&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N130" t="s">
@@ -25277,7 +31528,7 @@
         <v>39</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M194" si="2">IF(L131&gt;54, "Old",IF(L131&gt;=31, "Middle Age",IF(L131&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="2"/>
         <v>Middle Age</v>
       </c>
       <c r="N131" t="s">
@@ -28112,7 +34363,7 @@
         <v>62</v>
       </c>
       <c r="M194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M194:M257" si="3">IF(L194&gt;54, "Old",IF(L194&gt;=31, "Middle Age",IF(L194&lt;31, "Adolescent", "Invalid")))</f>
         <v>Old</v>
       </c>
       <c r="N194" t="s">
@@ -28157,7 +34408,7 @@
         <v>41</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" ref="M195:M258" si="3">IF(L195&gt;54, "Old",IF(L195&gt;=31, "Middle Age",IF(L195&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="3"/>
         <v>Middle Age</v>
       </c>
       <c r="N195" t="s">
@@ -30992,7 +37243,7 @@
         <v>43</v>
       </c>
       <c r="M258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M258:M321" si="4">IF(L258&gt;54, "Old",IF(L258&gt;=31, "Middle Age",IF(L258&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N258" t="s">
@@ -31037,7 +37288,7 @@
         <v>36</v>
       </c>
       <c r="M259" t="str">
-        <f t="shared" ref="M259:M322" si="4">IF(L259&gt;54, "Old",IF(L259&gt;=31, "Middle Age",IF(L259&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="4"/>
         <v>Middle Age</v>
       </c>
       <c r="N259" t="s">
@@ -33872,7 +40123,7 @@
         <v>40</v>
       </c>
       <c r="M322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M322:M385" si="5">IF(L322&gt;54, "Old",IF(L322&gt;=31, "Middle Age",IF(L322&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N322" t="s">
@@ -33917,7 +40168,7 @@
         <v>47</v>
       </c>
       <c r="M323" t="str">
-        <f t="shared" ref="M323:M386" si="5">IF(L323&gt;54, "Old",IF(L323&gt;=31, "Middle Age",IF(L323&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="5"/>
         <v>Middle Age</v>
       </c>
       <c r="N323" t="s">
@@ -36752,7 +43003,7 @@
         <v>28</v>
       </c>
       <c r="M386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M386:M449" si="6">IF(L386&gt;54, "Old",IF(L386&gt;=31, "Middle Age",IF(L386&lt;31, "Adolescent", "Invalid")))</f>
         <v>Adolescent</v>
       </c>
       <c r="N386" t="s">
@@ -36797,7 +43048,7 @@
         <v>43</v>
       </c>
       <c r="M387" t="str">
-        <f t="shared" ref="M387:M450" si="6">IF(L387&gt;54, "Old",IF(L387&gt;=31, "Middle Age",IF(L387&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="6"/>
         <v>Middle Age</v>
       </c>
       <c r="N387" t="s">
@@ -39632,7 +45883,7 @@
         <v>46</v>
       </c>
       <c r="M450" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M450:M513" si="7">IF(L450&gt;54, "Old",IF(L450&gt;=31, "Middle Age",IF(L450&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N450" t="s">
@@ -39677,7 +45928,7 @@
         <v>42</v>
       </c>
       <c r="M451" t="str">
-        <f t="shared" ref="M451:M514" si="7">IF(L451&gt;54, "Old",IF(L451&gt;=31, "Middle Age",IF(L451&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="7"/>
         <v>Middle Age</v>
       </c>
       <c r="N451" t="s">
@@ -42512,7 +48763,7 @@
         <v>45</v>
       </c>
       <c r="M514" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M514:M577" si="8">IF(L514&gt;54, "Old",IF(L514&gt;=31, "Middle Age",IF(L514&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N514" t="s">
@@ -42557,7 +48808,7 @@
         <v>61</v>
       </c>
       <c r="M515" t="str">
-        <f t="shared" ref="M515:M578" si="8">IF(L515&gt;54, "Old",IF(L515&gt;=31, "Middle Age",IF(L515&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="8"/>
         <v>Old</v>
       </c>
       <c r="N515" t="s">
@@ -45392,7 +51643,7 @@
         <v>31</v>
       </c>
       <c r="M578" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M578:M641" si="9">IF(L578&gt;54, "Old",IF(L578&gt;=31, "Middle Age",IF(L578&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N578" t="s">
@@ -45437,7 +51688,7 @@
         <v>38</v>
       </c>
       <c r="M579" t="str">
-        <f t="shared" ref="M579:M642" si="9">IF(L579&gt;54, "Old",IF(L579&gt;=31, "Middle Age",IF(L579&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="9"/>
         <v>Middle Age</v>
       </c>
       <c r="N579" t="s">
@@ -48272,7 +54523,7 @@
         <v>56</v>
       </c>
       <c r="M642" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M642:M705" si="10">IF(L642&gt;54, "Old",IF(L642&gt;=31, "Middle Age",IF(L642&lt;31, "Adolescent", "Invalid")))</f>
         <v>Old</v>
       </c>
       <c r="N642" t="s">
@@ -48317,7 +54568,7 @@
         <v>64</v>
       </c>
       <c r="M643" t="str">
-        <f t="shared" ref="M643:M706" si="10">IF(L643&gt;54, "Old",IF(L643&gt;=31, "Middle Age",IF(L643&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="10"/>
         <v>Old</v>
       </c>
       <c r="N643" t="s">
@@ -51152,7 +57403,7 @@
         <v>42</v>
       </c>
       <c r="M706" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M706:M769" si="11">IF(L706&gt;54, "Old",IF(L706&gt;=31, "Middle Age",IF(L706&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N706" t="s">
@@ -51197,7 +57448,7 @@
         <v>59</v>
       </c>
       <c r="M707" t="str">
-        <f t="shared" ref="M707:M770" si="11">IF(L707&gt;54, "Old",IF(L707&gt;=31, "Middle Age",IF(L707&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="11"/>
         <v>Old</v>
       </c>
       <c r="N707" t="s">
@@ -54032,7 +60283,7 @@
         <v>45</v>
       </c>
       <c r="M770" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M770:M833" si="12">IF(L770&gt;54, "Old",IF(L770&gt;=31, "Middle Age",IF(L770&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N770" t="s">
@@ -54077,7 +60328,7 @@
         <v>40</v>
       </c>
       <c r="M771" t="str">
-        <f t="shared" ref="M771:M834" si="12">IF(L771&gt;54, "Old",IF(L771&gt;=31, "Middle Age",IF(L771&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="12"/>
         <v>Middle Age</v>
       </c>
       <c r="N771" t="s">
@@ -56912,7 +63163,7 @@
         <v>39</v>
       </c>
       <c r="M834" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M834:M897" si="13">IF(L834&gt;54, "Old",IF(L834&gt;=31, "Middle Age",IF(L834&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N834" t="s">
@@ -56957,7 +63208,7 @@
         <v>37</v>
       </c>
       <c r="M835" t="str">
-        <f t="shared" ref="M835:M898" si="13">IF(L835&gt;54, "Old",IF(L835&gt;=31, "Middle Age",IF(L835&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="13"/>
         <v>Middle Age</v>
       </c>
       <c r="N835" t="s">
@@ -59792,7 +66043,7 @@
         <v>34</v>
       </c>
       <c r="M898" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M898:M961" si="14">IF(L898&gt;54, "Old",IF(L898&gt;=31, "Middle Age",IF(L898&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N898" t="s">
@@ -59837,7 +66088,7 @@
         <v>28</v>
       </c>
       <c r="M899" t="str">
-        <f t="shared" ref="M899:M962" si="14">IF(L899&gt;54, "Old",IF(L899&gt;=31, "Middle Age",IF(L899&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="14"/>
         <v>Adolescent</v>
       </c>
       <c r="N899" t="s">
@@ -62672,7 +68923,7 @@
         <v>45</v>
       </c>
       <c r="M962" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M962:M1025" si="15">IF(L962&gt;54, "Old",IF(L962&gt;=31, "Middle Age",IF(L962&lt;31, "Adolescent", "Invalid")))</f>
         <v>Middle Age</v>
       </c>
       <c r="N962" t="s">
@@ -62717,7 +68968,7 @@
         <v>62</v>
       </c>
       <c r="M963" t="str">
-        <f t="shared" ref="M963:M1001" si="15">IF(L963&gt;54, "Old",IF(L963&gt;=31, "Middle Age",IF(L963&lt;31, "Adolescent", "Invalid")))</f>
+        <f t="shared" si="15"/>
         <v>Old</v>
       </c>
       <c r="N963" t="s">
@@ -64447,8 +70698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC18B84-F341-402E-9A3D-40DB17F98C67}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -64459,26 +70710,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="12" t="s">
-        <v>52</v>
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
@@ -64486,7 +70740,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2">
@@ -64494,7 +70748,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="2">
@@ -64502,13 +70756,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8">
-        <f>GETPIVOTDATA("Income",$A$3,"Gender","Female")</f>
-        <v>54580.777096114522</v>
-      </c>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -64518,22 +70766,24 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{3069F6B2-1A83-4C34-8436-3B6B9B874510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D6F61-65FE-4636-B09D-59FC8CD88645}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="8" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="3.375" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="49" width="3.375" customWidth="1"/>
     <col min="50" max="50" width="11.5" customWidth="1"/>
@@ -64544,75 +70794,85 @@
     <col min="55" max="55" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B7" s="2">
         <v>56208.178438661707</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C7" s="2">
+        <v>56208.178438661707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B8" s="2">
         <v>56208.178438661707</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="9">
-        <f>GETPIVOTDATA("Income",$A$1,"Gender","Male")</f>
+      <c r="C8" s="2">
         <v>56208.178438661707</v>
       </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE95061-5C6B-4C50-A696-87797AF65097}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="49" width="3.375" customWidth="1"/>
     <col min="50" max="50" width="11.5" customWidth="1"/>
@@ -64623,68 +70883,58 @@
     <col min="55" max="55" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3660000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B5" s="10">
+        <v>41420000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="10">
-        <v>8.1081081081081086E-2</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B6" s="10">
+        <v>11280000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.79625779625779625</v>
-      </c>
-      <c r="C3" s="6">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.12266112266112267</v>
-      </c>
-      <c r="C4" s="6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
+      <c r="B7">
+        <v>56360000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:B1048576 B1">
+  <conditionalFormatting sqref="B8:B1048576 B3">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -64727,7 +70977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B6:B1048576 B1</xm:sqref>
+          <xm:sqref>B8:B1048576 B3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9569747-92E0-4DE2-8122-DE49D88EAFAB}">
@@ -64753,16 +71003,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D98888-D2CE-4875-A007-27591343E6D5}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="3.375" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="47" width="3.375" customWidth="1"/>
@@ -64775,60 +71025,65 @@
     <col min="55" max="55" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B6">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="B8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:N15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -64844,16 +71099,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF35B4-B64B-40F6-964A-F05CDA517D88}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="3.375" customWidth="1"/>
     <col min="25" max="25" width="11.5" customWidth="1"/>
     <col min="26" max="34" width="3.375" customWidth="1"/>
@@ -64869,62 +71124,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B11">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
+      <c r="B15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69CE930-61FD-4850-BC58-F30CD70ECA90}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -64940,123 +71257,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B4">
         <v>169</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="D4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B5">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B6">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B9">
         <v>481</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX1:AX1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAE2278D-C24C-4E32-9EBF-18A964C6219C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C41AE15C-CB9D-45EE-B29C-2DC3471571AD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAE2278D-C24C-4E32-9EBF-18A964C6219C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>AX1:AX1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C41AE15C-CB9D-45EE-B29C-2DC3471571AD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId4"/>
